--- a/results/I3_N5_M2_T45_C150_DepCentral_s1_P2_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1388.945706385664</v>
+        <v>1333.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1102.199999332431</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258.55</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.15891053163818</v>
+        <v>41.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.51090377847701</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.45608396410244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.2093610446023</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>256.4799999999992</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>254.7249999999992</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>253.1349999999992</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>256.0399999999991</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>252.0599999999991</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.43999999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53499999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.36999999999971</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81499999999971</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.8349999999997</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999988</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0749999999989</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2799999999988</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7849999999988</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5799999999988</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.4200000000005</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>155.5150000000009</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>151.3300000000008</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>152.0850000000009</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>159.6700000000009</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>160.0600000000009</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.4799999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>254.7249999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>253.1349999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>256.0399999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>252.0599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>155.5150000000009</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>151.3300000000008</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>152.0850000000009</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6700000000009</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>160.0600000000009</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4799999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>104.7249999046326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>103.1349999904633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>106.039999961853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>102.0599999427795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.515000000000867</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.329999923706055</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.085000000000861</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>9.670000000000869</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.05999994277954</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1970,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1981,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -1992,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2003,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2014,12 +2279,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
